--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H2">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N2">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O2">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P2">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q2">
-        <v>22.13669725849673</v>
+        <v>31.99429507057777</v>
       </c>
       <c r="R2">
-        <v>22.13669725849673</v>
+        <v>287.9486556351999</v>
       </c>
       <c r="S2">
-        <v>0.006716730724429979</v>
+        <v>0.008264590964100323</v>
       </c>
       <c r="T2">
-        <v>0.006716730724429979</v>
+        <v>0.008264590964100323</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H3">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I3">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J3">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N3">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P3">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q3">
-        <v>71.14313508880274</v>
+        <v>85.91129026506111</v>
       </c>
       <c r="R3">
-        <v>71.14313508880274</v>
+        <v>773.20161238555</v>
       </c>
       <c r="S3">
-        <v>0.02158629517778768</v>
+        <v>0.02219213368110011</v>
       </c>
       <c r="T3">
-        <v>0.02158629517778768</v>
+        <v>0.02219213368110011</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H4">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I4">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J4">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N4">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O4">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P4">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q4">
-        <v>94.45072315161183</v>
+        <v>122.8888167921289</v>
       </c>
       <c r="R4">
-        <v>94.45072315161183</v>
+        <v>1105.99935112916</v>
       </c>
       <c r="S4">
-        <v>0.02865829833280839</v>
+        <v>0.03174396568540704</v>
       </c>
       <c r="T4">
-        <v>0.02865829833280839</v>
+        <v>0.03174396568540704</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H5">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I5">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J5">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N5">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O5">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P5">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q5">
-        <v>24.59978926750343</v>
+        <v>38.89851939549777</v>
       </c>
       <c r="R5">
-        <v>24.59978926750343</v>
+        <v>350.0866745594799</v>
       </c>
       <c r="S5">
-        <v>0.007464083664247736</v>
+        <v>0.01004805235445078</v>
       </c>
       <c r="T5">
-        <v>0.007464083664247736</v>
+        <v>0.01004805235445078</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H6">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I6">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J6">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N6">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O6">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P6">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q6">
-        <v>267.1901813786411</v>
+        <v>326.5441471955911</v>
       </c>
       <c r="R6">
-        <v>267.1901813786411</v>
+        <v>2938.89732476032</v>
       </c>
       <c r="S6">
-        <v>0.08107101432410377</v>
+        <v>0.08435109454167425</v>
       </c>
       <c r="T6">
-        <v>0.08107101432410377</v>
+        <v>0.08435109454167426</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H7">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I7">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J7">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N7">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O7">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P7">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q7">
-        <v>858.6984294112002</v>
+        <v>876.8384786160146</v>
       </c>
       <c r="R7">
-        <v>858.6984294112002</v>
+        <v>7891.54630754413</v>
       </c>
       <c r="S7">
-        <v>0.2605468221612047</v>
+        <v>0.2265001104528016</v>
       </c>
       <c r="T7">
-        <v>0.2605468221612047</v>
+        <v>0.2265001104528015</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H8">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I8">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J8">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N8">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O8">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P8">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q8">
-        <v>1140.021275781622</v>
+        <v>1254.24310148854</v>
       </c>
       <c r="R8">
-        <v>1140.021275781622</v>
+        <v>11288.18791339686</v>
       </c>
       <c r="S8">
-        <v>0.3459059786620703</v>
+        <v>0.3239892043403649</v>
       </c>
       <c r="T8">
-        <v>0.3459059786620703</v>
+        <v>0.3239892043403649</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H9">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I9">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J9">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N9">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O9">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P9">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q9">
-        <v>296.919729239995</v>
+        <v>397.0108988228631</v>
       </c>
       <c r="R9">
-        <v>296.919729239995</v>
+        <v>3573.098089405767</v>
       </c>
       <c r="S9">
-        <v>0.09009157259492359</v>
+        <v>0.1025536796426604</v>
       </c>
       <c r="T9">
-        <v>0.09009157259492359</v>
+        <v>0.1025536796426604</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H10">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I10">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J10">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N10">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O10">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P10">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q10">
-        <v>9.451672985436069</v>
+        <v>12.21774829333333</v>
       </c>
       <c r="R10">
-        <v>9.451672985436069</v>
+        <v>109.95973464</v>
       </c>
       <c r="S10">
-        <v>0.002867832612842733</v>
+        <v>0.003156021782133028</v>
       </c>
       <c r="T10">
-        <v>0.002867832612842733</v>
+        <v>0.003156021782133028</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H11">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I11">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J11">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N11">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O11">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P11">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q11">
-        <v>30.37587948039402</v>
+        <v>32.80717758270834</v>
       </c>
       <c r="R11">
-        <v>30.37587948039402</v>
+        <v>295.2645982443751</v>
       </c>
       <c r="S11">
-        <v>0.009216668620664861</v>
+        <v>0.00847457031978888</v>
       </c>
       <c r="T11">
-        <v>0.009216668620664861</v>
+        <v>0.00847457031978888</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H12">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I12">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J12">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N12">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O12">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P12">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q12">
-        <v>40.32748598593851</v>
+        <v>46.92788599716667</v>
       </c>
       <c r="R12">
-        <v>40.32748598593851</v>
+        <v>422.3509739745001</v>
       </c>
       <c r="S12">
-        <v>0.01223619137930817</v>
+        <v>0.0121221543316069</v>
       </c>
       <c r="T12">
-        <v>0.01223619137930817</v>
+        <v>0.0121221543316069</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H13">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I13">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J13">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N13">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O13">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P13">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q13">
-        <v>10.5033357484183</v>
+        <v>14.85428317483333</v>
       </c>
       <c r="R13">
-        <v>10.5033357484183</v>
+        <v>133.6885485735</v>
       </c>
       <c r="S13">
-        <v>0.003186928795501619</v>
+        <v>0.003837077023703841</v>
       </c>
       <c r="T13">
-        <v>0.003186928795501619</v>
+        <v>0.003837077023703841</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H14">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I14">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J14">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N14">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O14">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P14">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q14">
-        <v>44.8234212684082</v>
+        <v>72.07912921962665</v>
       </c>
       <c r="R14">
-        <v>44.8234212684082</v>
+        <v>648.71216297664</v>
       </c>
       <c r="S14">
-        <v>0.01360035091467979</v>
+        <v>0.01861908564432042</v>
       </c>
       <c r="T14">
-        <v>0.01360035091467979</v>
+        <v>0.01861908564432042</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H15">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I15">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J15">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N15">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O15">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P15">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q15">
-        <v>144.0539515539831</v>
+        <v>193.5473489501817</v>
       </c>
       <c r="R15">
-        <v>144.0539515539831</v>
+        <v>1741.926140551635</v>
       </c>
       <c r="S15">
-        <v>0.043708941360112</v>
+        <v>0.04999609048208849</v>
       </c>
       <c r="T15">
-        <v>0.043708941360112</v>
+        <v>0.04999609048208849</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H16">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I16">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J16">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N16">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O16">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P16">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q16">
-        <v>191.2482473556667</v>
+        <v>276.8530728890013</v>
       </c>
       <c r="R16">
-        <v>191.2482473556667</v>
+        <v>2491.677656001012</v>
       </c>
       <c r="S16">
-        <v>0.05802866452962566</v>
+        <v>0.071515168549095</v>
       </c>
       <c r="T16">
-        <v>0.05802866452962566</v>
+        <v>0.07151516854909501</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H17">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I17">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J17">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N17">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O17">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P17">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q17">
-        <v>49.8108053146069</v>
+        <v>87.63347964927065</v>
       </c>
       <c r="R17">
-        <v>49.8108053146069</v>
+        <v>788.701316843436</v>
       </c>
       <c r="S17">
-        <v>0.01511362614568909</v>
+        <v>0.02263700020470408</v>
       </c>
       <c r="T17">
-        <v>0.01511362614568909</v>
+        <v>0.02263700020470408</v>
       </c>
     </row>
   </sheetData>
